--- a/Mathematical Methods/Water Bubbler Points.xlsx
+++ b/Mathematical Methods/Water Bubbler Points.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Downloads\isc\Mathematical Methods\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDEF17F-DCDF-4FB4-B572-B1C0D4ABF10D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,40 +27,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">x</t>
+    <t>x</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,7 +53,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -75,45 +61,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -172,18 +130,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -191,9 +168,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -208,15 +182,23 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-AU" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-AU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -224,8 +206,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -242,10 +225,11 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -464,7 +448,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E2B-4B14-97FE-F1C1815FAC6C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="12783579"/>
         <c:axId val="7848251"/>
       </c:scatterChart>
@@ -482,7 +479,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -491,10 +488,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="en-AU" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr lang="en-AU" sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="7848251"/>
@@ -512,7 +510,7 @@
           <c:spPr>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -524,7 +522,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -533,10 +531,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="en-AU" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr lang="en-AU" sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="12783579"/>
@@ -547,32 +546,41 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -580,9 +588,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -597,15 +602,23 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-AU" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-AU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -613,8 +626,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -631,10 +645,11 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="4"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -853,7 +868,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE13-4935-8C6B-68B927AF4109}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="74298565"/>
         <c:axId val="11241617"/>
       </c:scatterChart>
@@ -871,7 +899,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -880,10 +908,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="en-AU" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr lang="en-AU" sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="11241617"/>
@@ -901,7 +930,7 @@
           <c:spPr>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -913,7 +942,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -922,10 +951,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="en-AU" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr lang="en-AU" sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="74298565"/>
@@ -936,32 +966,41 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -969,9 +1008,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -986,15 +1022,23 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-AU" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-AU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1002,8 +1046,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1020,10 +1065,11 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="3"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1242,7 +1288,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-963A-413F-A3B1-426734485F7A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="21475614"/>
         <c:axId val="41677058"/>
       </c:scatterChart>
@@ -1260,7 +1319,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1269,10 +1328,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="en-AU" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr lang="en-AU" sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="41677058"/>
@@ -1290,7 +1350,7 @@
           <c:spPr>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1302,7 +1362,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1311,10 +1371,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="en-AU" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr lang="en-AU" sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="21475614"/>
@@ -1325,27 +1386,33 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1359,14 +1426,20 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3198240" y="208080"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1389,14 +1462,20 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3182040" y="7038360"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1419,14 +1498,20 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3211920" y="3595680"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1439,296 +1524,585 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>5.5</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>7.5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>14.5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>8</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>16.5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>10</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>18.5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>11.5</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>20.5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>13</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>14.5</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>23</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>16</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>24.5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>18</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>25.5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>20</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>26.5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>21.5</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>27</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>23</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>26.5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>26</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>26</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>27.5</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>25</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>28.5</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>24.5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>30.5</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>23</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>32</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>22</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>33.5</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>20.5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>35</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>19</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>36</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>17.5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>37</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>16</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>38.5</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>14.5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>39.5</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>12.5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>41</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>11</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>42.5</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>8.5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>43.5</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>7</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>44.5</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>45</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>45.5</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>46</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
